--- a/backend/matching_results.xlsx
+++ b/backend/matching_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Matched Skills</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Education Score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Matched Education</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Experience Score</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Final Score</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
@@ -489,418 +504,24 @@
       <c r="D2" t="n">
         <v>100</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>100</v>
       </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Shadab_Modern_Resume.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mohammadshadabibrahim@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>+91 9627723929</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Shadab_fake.pdf</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mohshadabali@gmail.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9627723929</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>shadab ml cv.pdf</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mohammadshadabibrahim@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>+91 9627723929</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>shadab ds cv.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mohammadshadabibrahim@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>+91 9627723929</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>shadab da cv.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mohammadshadabibrahim@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>+91 9627723929</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>shadab ai ml intern cv.pdf</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mohammadshadabibrahim@gmail.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>+91 9627723929</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mayank_Resumeupdate_Mechanical.pdf</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>itsmayanksingh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>+91 9568286329</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mayank_Resumeupdate_Datascience.pdf</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>itsmayanksingh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>+91-9568286329</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bhagyashree_Resume.pdf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>bhagyashreeb199@gmail.com</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9509011601</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AjayChafekarResume.pdf</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ajaychafekarande277@gmail.com</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>+91 9579392964</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Aditya_java_cv.pdf</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adityakumar30sarai@gmail.com</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>+620-033-4862</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Adarsh Tripathi 9343162131(UPDATED)-1.pdf</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>adarshtripathiise2023@gmail.com</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2023 - 05</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Abhijeet_ Dhaka_1.pdf</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>abhijeet07choudhary@gmail.com</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9828047945</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
-        <v>50</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Low</t>
         </is>
       </c>
     </row>
